--- a/biology/Médecine/1633_en_santé_et_médecine/1633_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1633_en_santé_et_médecine/1633_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1633_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1633_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1633 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1633_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1633_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>29 novembre : Louise de Marillac et Vincent de Paul fondent la congrégation des Filles de la charité, première organisation infirmière au service des malades[1].
-Sur les ruines du château de Bicêtre, le roi Louis XIII fait bâtir une maison destinée à recevoir les soldats blessés de la commanderie de Saint-Louis et qui est à l'origine de l’actuel hôpital Bicêtre[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29 novembre : Louise de Marillac et Vincent de Paul fondent la congrégation des Filles de la charité, première organisation infirmière au service des malades.
+Sur les ruines du château de Bicêtre, le roi Louis XIII fait bâtir une maison destinée à recevoir les soldats blessés de la commanderie de Saint-Louis et qui est à l'origine de l’actuel hôpital Bicêtre.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1633_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1633_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>24 septembre : les troupes françaises occupent la place de guerre de Nancy et, jusqu'en 1663, les blessés et les malades y seront soignés dans les hospices civils, constitués des hôpitaux Saint-Julien (fondé en 1335), Saint-Charles (1626) et Saint-Joseph (1632[3]).
-À Halkirk, en Écosse, l'hôpital St. Magnus, mentionné en 1476, est encore en fonction[4].
-1633-1634 : le roi Louis XIV, grand amateur des eaux de Forges, ayant accordé au bourg divers privilèges, « cette thérapie rencontre une forte hostilité de la faculté de médecine de Paris[5] ».
-À partir de 1633 : Les « Conférences » organisées par Théophraste Renaudot attirent « un public nombreux de médecins de province et de chirurgiens[6] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>24 septembre : les troupes françaises occupent la place de guerre de Nancy et, jusqu'en 1663, les blessés et les malades y seront soignés dans les hospices civils, constitués des hôpitaux Saint-Julien (fondé en 1335), Saint-Charles (1626) et Saint-Joseph (1632).
+À Halkirk, en Écosse, l'hôpital St. Magnus, mentionné en 1476, est encore en fonction.
+1633-1634 : le roi Louis XIV, grand amateur des eaux de Forges, ayant accordé au bourg divers privilèges, « cette thérapie rencontre une forte hostilité de la faculté de médecine de Paris ».
+À partir de 1633 : Les « Conférences » organisées par Théophraste Renaudot attirent « un public nombreux de médecins de province et de chirurgiens ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1633_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1633_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sous le titre de Traité de la parfaite cure de la maladie vénérienne[7], Michel Le Long donne une traduction française du De luis venereae curatione[8] de Jean Fernel (1497-1558), édité en latin à titre posthume en 1579 par Victor Gislain (1543-1591).
-Robert Fludd publie sa « Clé de la philosophie et de l'alchimie » (Clavis philosophiae et alchymiae[9]).
-Parution du traité « sur le poison pestilentiel et le traitement de la peste », du médecin vénitien Valerio Martini[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous le titre de Traité de la parfaite cure de la maladie vénérienne, Michel Le Long donne une traduction française du De luis venereae curatione de Jean Fernel (1497-1558), édité en latin à titre posthume en 1579 par Victor Gislain (1543-1591).
+Robert Fludd publie sa « Clé de la philosophie et de l'alchimie » (Clavis philosophiae et alchymiae).
+Parution du traité « sur le poison pestilentiel et le traitement de la peste », du médecin vénitien Valerio Martini.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1633_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1633_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,18 +625,20 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1er février : Charles Drelincourt le Jeune (mort en 1697), médecin français[11],[12].
-13 février : Georg Christoph Petri von Hartenfels (de) (mort en 1718), médecin allemand, membre de l'académie Léopoldine[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er février : Charles Drelincourt le Jeune (mort en 1697), médecin français,.
+13 février : Georg Christoph Petri von Hartenfels (de) (mort en 1718), médecin allemand, membre de l'académie Léopoldine.
 23 février :
-Samuel Pepys (mort en 1703), haut fonctionnaire de l'Amirauté anglaise, diariste de la grande peste de Londres (1665-1666[14]).
-Charles Patin (mort en 1693), médecin et numismate français, fils de Guy Patin[15].
-4 octobre : Bernardino Ramazzini (mort en 1714), médecin Italien, précurseur de la médecine du travail[16].
-18 octobre : Gabriel Clauder (de) (mort en 1691), médecin et alchimiste allemand[17].
-29 décembre : Jean Le Pelletier (mort en 1711), alchimiste, auteur, en 1706, de La Pyrotecnie de Starkey, ou l'Art de volatiliser les alcalis[18].
-Louis Chartier (mort en 1660), chirurgien français mandaté au Canada en 1653[19].
-Nicolas Venette (mort en 1698), médecin, sexologue et écrivain français[20].</t>
+Samuel Pepys (mort en 1703), haut fonctionnaire de l'Amirauté anglaise, diariste de la grande peste de Londres (1665-1666).
+Charles Patin (mort en 1693), médecin et numismate français, fils de Guy Patin.
+4 octobre : Bernardino Ramazzini (mort en 1714), médecin Italien, précurseur de la médecine du travail.
+18 octobre : Gabriel Clauder (de) (mort en 1691), médecin et alchimiste allemand.
+29 décembre : Jean Le Pelletier (mort en 1711), alchimiste, auteur, en 1706, de La Pyrotecnie de Starkey, ou l'Art de volatiliser les alcalis.
+Louis Chartier (mort en 1660), chirurgien français mandaté au Canada en 1653.
+Nicolas Venette (mort en 1698), médecin, sexologue et écrivain français.</t>
         </is>
       </c>
     </row>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1633_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1633_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,16 +666,18 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12 septembre : Ludovico Settala (né en 1550), médecin italien[21].
-21 juillet : Philibert Guybert (né vers 1579), médecin, ami de Guy Patin, auteur entre autres ouvrages du Médecin charitable, incitant les malades à se passer des services des apothicaires et à faire leurs remèdes eux-mêmes[22],[23].
-Avant le 29 novembre : Marguerite Naseau (née en 1594), considérée comme la « première Fille de la charité[1] ».
-Jakob Bartsch (né en 1600), mathématicien, astronome et médecin allemand[24].
-Loys du Cardin (né en 1572), médecin, humaniste et poète douaisien[25].
-Charles Le Pois (né en 1563), médecin français[26].
-Juan de Pablo Bonet (né en 1573), pionnier espagnol de l'éducation oraliste des sourds[27].
-Bernardus Paludanus (né en 1550), médecin et collectionneur néerlandais[28].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12 septembre : Ludovico Settala (né en 1550), médecin italien.
+21 juillet : Philibert Guybert (né vers 1579), médecin, ami de Guy Patin, auteur entre autres ouvrages du Médecin charitable, incitant les malades à se passer des services des apothicaires et à faire leurs remèdes eux-mêmes,.
+Avant le 29 novembre : Marguerite Naseau (née en 1594), considérée comme la « première Fille de la charité ».
+Jakob Bartsch (né en 1600), mathématicien, astronome et médecin allemand.
+Loys du Cardin (né en 1572), médecin, humaniste et poète douaisien.
+Charles Le Pois (né en 1563), médecin français.
+Juan de Pablo Bonet (né en 1573), pionnier espagnol de l'éducation oraliste des sourds.
+Bernardus Paludanus (né en 1550), médecin et collectionneur néerlandais.</t>
         </is>
       </c>
     </row>
